--- a/artfynd/A 19410-2023 artfynd.xlsx
+++ b/artfynd/A 19410-2023 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130836029</v>
       </c>
       <c r="B2" t="n">
-        <v>97122</v>
+        <v>97126</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>131007343</v>
       </c>
       <c r="B3" t="n">
-        <v>99009</v>
+        <v>99013</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>131007342</v>
       </c>
       <c r="B4" t="n">
-        <v>97874</v>
+        <v>97878</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/artfynd/A 19410-2023 artfynd.xlsx
+++ b/artfynd/A 19410-2023 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130836029</v>
       </c>
       <c r="B2" t="n">
-        <v>97126</v>
+        <v>97127</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>131007343</v>
       </c>
       <c r="B3" t="n">
-        <v>99013</v>
+        <v>99014</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>131007342</v>
       </c>
       <c r="B4" t="n">
-        <v>97878</v>
+        <v>97879</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
